--- a/templates/1SPL02_ProteomicsSamplePreparation/1SPL02_ProteomicsSamplePreparation.xlsx
+++ b/templates/1SPL02_ProteomicsSamplePreparation/1SPL02_ProteomicsSamplePreparation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/630acb9a9506da97/CSB-Stuff/NFDI/ProteomicsTemplate/modular/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Freym\source\repos\SWATE_templates\templates\1SPL02_ProteomicsSamplePreparation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="121" documentId="8_{4E2E7680-CDC8-425A-8327-0918921D25A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{0E0F9607-7055-4C6F-AF8D-A7A72B7A3F7C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD258148-0823-47FF-9688-A064769A87DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B0FB3F19-C527-41AF-B02D-0669FBE7650F}"/>
+    <workbookView xWindow="-28920" yWindow="-6555" windowWidth="29040" windowHeight="15840" xr2:uid="{B0FB3F19-C527-41AF-B02D-0669FBE7650F}"/>
   </bookViews>
   <sheets>
     <sheet name="1SPL02_ProteomicsSamplePreparat" sheetId="5" r:id="rId1"/>
@@ -53,117 +53,117 @@
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{0E8976A2-C0FF-4995-9DA9-CF1DF0944FE1}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     (previously known as)</t>
       </text>
     </comment>
     <comment ref="AL1" authorId="1" shapeId="0" xr:uid="{E7B319D8-0860-460C-A2AC-00375046390A}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Protein -or- Metabolite</t>
       </text>
     </comment>
     <comment ref="B3" authorId="2" shapeId="0" xr:uid="{8A4011A8-7234-47CF-A726-366C12506E38}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     The name of the species used in the experiment (e.g. 'Mus musculus').
 Note: Must be from ontology NEWT (UniProt Taxonomy database: https://www.uniprot.org/taxonomy/?query=&amp;sort=score)</t>
       </text>
     </comment>
     <comment ref="E3" authorId="3" shapeId="0" xr:uid="{E831CF7C-D240-4838-8E45-956BC57B3F24}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     The genetic variant you are using (e.g. 'Wild type' or your specific knockout type).</t>
       </text>
     </comment>
     <comment ref="H3" authorId="4" shapeId="0" xr:uid="{64A336AA-207E-4934-8F2D-9BCC11B45BBE}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     How you treat your samples (e.g. 'solved in NaCl').</t>
       </text>
     </comment>
     <comment ref="K3" authorId="5" shapeId="0" xr:uid="{8476D842-BBB7-4ACD-98E6-93E5523E2FE7}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Modifications applied to your sample (e.g. 'His-tag' or 'Xlink').</t>
       </text>
     </comment>
     <comment ref="N3" authorId="6" shapeId="0" xr:uid="{5B32E63D-7B51-44E7-81BD-EB5E346798B9}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Describes the tissue where your sample comes from (e.g. 'cholesteatoma tissue').
 Note: Must be from BRENDA ontology.</t>
       </text>
     </comment>
     <comment ref="Q3" authorId="7" shapeId="0" xr:uid="{8ED40137-3843-4122-979B-A364D489C684}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     The type of cells used in your sample (e.g. 'barrier epithelial cell').
 Note: Must be from Cell ontology.</t>
       </text>
     </comment>
     <comment ref="T3" authorId="8" shapeId="0" xr:uid="{91DB2ED7-269C-47F6-BED7-3D540D7DC7C9}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     The name of the disease your sample is assigned with (e.g. 'abducens nerve disease').
 Note: Must be from DOID ontology.</t>
       </text>
     </comment>
     <comment ref="W3" authorId="9" shapeId="0" xr:uid="{95E1F8B0-7342-4920-9F32-F8C32639E1E5}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     The number of your biological replicate (e.g. '3').</t>
       </text>
     </comment>
     <comment ref="Z3" authorId="10" shapeId="0" xr:uid="{09EA7169-E8F4-4279-A232-C6E9DF57796F}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     The type of analysis of your sample (e.g. 'metabolic labelling: heavy N (mainly 15N)').</t>
       </text>
     </comment>
     <comment ref="AC3" authorId="11" shapeId="0" xr:uid="{EC065B74-285E-4D0D-8DBD-AC511A51FC19}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     The kind of medium in which your sample is solved (e.g. 'Gel', 'Pellet', 'Solution', 'Beads').</t>
       </text>
     </comment>
     <comment ref="AF3" authorId="12" shapeId="0" xr:uid="{5BFD4A55-7359-4C9B-9EFB-943C59BC0DEF}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     The temperature applied to the sample (e.g. '300 K').</t>
       </text>
     </comment>
     <comment ref="AL3" authorId="13" shapeId="0" xr:uid="{53E80EE1-D05C-4358-B3D1-1779C8DF7E33}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Time parameter of the sample (e.g. '10 min', '2 h', '1.5 a').</t>
       </text>
     </comment>
@@ -452,7 +452,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -561,7 +561,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -908,7 +908,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="619" row="0">
+  <wetp:taskpane dockstate="right" visibility="0" width="604" row="2">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -929,57 +929,57 @@
   <dimension ref="A1:AQ13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="37.7109375" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="55.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="57.7109375" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="64.85546875" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="59.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="55.28515625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="62.28515625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="23.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.73046875" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="37.73046875" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="55.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="57.73046875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="64.86328125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="59.86328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="55.265625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="62.265625" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="28" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="47.42578125" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="54.5703125" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="52.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="58.7109375" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="65.85546875" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="27.140625" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="34.28515625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="47.3984375" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="54.59765625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="52.86328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="58.73046875" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="65.86328125" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="21.265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="27.1328125" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="34.265625" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="25" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="30.85546875" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="37.85546875" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="54.85546875" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="61.85546875" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="59.28515625" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="66.42578125" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="51.28515625" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="58.28515625" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="30.86328125" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="37.86328125" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="35.3984375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="54.86328125" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="61.86328125" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="36.265625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="59.265625" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="66.3984375" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="28.1328125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="51.265625" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="58.265625" hidden="1" customWidth="1"/>
     <col min="32" max="32" width="26" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="50.140625" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="57.140625" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="50.1328125" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="57.1328125" hidden="1" customWidth="1"/>
     <col min="35" max="35" width="43" hidden="1" customWidth="1"/>
     <col min="36" max="36" width="54" hidden="1" customWidth="1"/>
-    <col min="37" max="37" width="61.140625" hidden="1" customWidth="1"/>
-    <col min="38" max="38" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="40" max="40" width="50.85546875" hidden="1" customWidth="1"/>
-    <col min="41" max="41" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="43" max="43" width="50.85546875" hidden="1" customWidth="1"/>
+    <col min="37" max="37" width="61.1328125" hidden="1" customWidth="1"/>
+    <col min="38" max="38" width="18.73046875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="43.73046875" hidden="1" customWidth="1"/>
+    <col min="40" max="40" width="50.86328125" hidden="1" customWidth="1"/>
+    <col min="41" max="41" width="21.265625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="43.73046875" hidden="1" customWidth="1"/>
+    <col min="43" max="43" width="50.86328125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -1068,7 +1068,7 @@
       <c r="AP2" s="6"/>
       <c r="AQ2" s="6"/>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.45">
       <c r="B4" s="1"/>
       <c r="E4" s="1"/>
       <c r="H4" s="1"/>
@@ -1207,7 +1207,7 @@
       <c r="AF4" s="1"/>
       <c r="AL4" s="1"/>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.45">
       <c r="B5" s="1"/>
       <c r="E5" s="1"/>
       <c r="H5" s="1"/>
@@ -1223,7 +1223,7 @@
       <c r="AL5" s="1"/>
       <c r="AO5" s="1"/>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.45">
       <c r="B6" s="1"/>
       <c r="E6" s="1"/>
       <c r="H6" s="1"/>
@@ -1239,7 +1239,7 @@
       <c r="AL6" s="1"/>
       <c r="AO6" s="1"/>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.45">
       <c r="B7" s="1"/>
       <c r="E7" s="1"/>
       <c r="H7" s="1"/>
@@ -1255,7 +1255,7 @@
       <c r="AL7" s="1"/>
       <c r="AO7" s="1"/>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.45">
       <c r="B8" s="1"/>
       <c r="E8" s="1"/>
       <c r="H8" s="1"/>
@@ -1271,7 +1271,7 @@
       <c r="AL8" s="1"/>
       <c r="AO8" s="1"/>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.45">
       <c r="B9" s="1"/>
       <c r="E9" s="1"/>
       <c r="H9" s="1"/>
@@ -1287,7 +1287,7 @@
       <c r="AL9" s="1"/>
       <c r="AO9" s="1"/>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.45">
       <c r="B10" s="1"/>
       <c r="E10" s="1"/>
       <c r="H10" s="1"/>
@@ -1303,7 +1303,7 @@
       <c r="AL10" s="1"/>
       <c r="AO10" s="1"/>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.45">
       <c r="B11" s="1"/>
       <c r="E11" s="1"/>
       <c r="H11" s="1"/>
@@ -1319,7 +1319,7 @@
       <c r="AL11" s="1"/>
       <c r="AO11" s="1"/>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.45">
       <c r="B12" s="1"/>
       <c r="E12" s="1"/>
       <c r="H12" s="1"/>
@@ -1335,7 +1335,7 @@
       <c r="AL12" s="1"/>
       <c r="AO12" s="1"/>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.45">
       <c r="B13" s="1"/>
       <c r="E13" s="1"/>
       <c r="H13" s="1"/>
@@ -1363,31 +1363,8 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <customXml>
-  <SwateTable Table="annotationTable2" Worksheet="Data procession">
-    <TableValidation DateTime="2021-03-02 14:11" SwateVersion="0.4.0" TableName="annotationTable2" Userlist="" WorksheetName="Data procession">
-      <ColumnValidation ColumnAdress="0" ColumnHeader="Source Name" Importance="5" Unit="None" ValidationFormat="Text"/>
-      <ColumnValidation ColumnAdress="1" ColumnHeader="Parameter [acquisition software]" Importance="3" Unit="None" ValidationFormat="OntologyTerm acquisition software"/>
-      <ColumnValidation ColumnAdress="4" ColumnHeader="Parameter [analysis software]" Importance="3" Unit="None" ValidationFormat="OntologyTerm analysis software"/>
-      <ColumnValidation ColumnAdress="7" ColumnHeader="Parameter [data processing software]" Importance="3" Unit="None" ValidationFormat="OntologyTerm data processing software"/>
-      <ColumnValidation ColumnAdress="10" ColumnHeader="Data File Name" Importance="5" Unit="None" ValidationFormat="Text"/>
-    </TableValidation>
-  </SwateTable>
-  <SwateTable Table="annotationTable1" Worksheet="Measurement">
-    <TableValidation DateTime="2021-03-02 14:10" SwateVersion="0.4.0" TableName="annotationTable1" Userlist="" WorksheetName="Measurement">
-      <ColumnValidation ColumnAdress="0" ColumnHeader="Source Name" Importance="5" Unit="None" ValidationFormat="Text"/>
-      <ColumnValidation ColumnAdress="1" ColumnHeader="Parameter [technical replicate]" Importance="3" Unit="None" ValidationFormat="Int"/>
-      <ColumnValidation ColumnAdress="4" ColumnHeader="Parameter [Variable modification]" Importance="4" Unit="None" ValidationFormat="OntologyTerm Variable modification"/>
-      <ColumnValidation ColumnAdress="7" ColumnHeader="Parameter [Fixed modification]" Importance="4" Unit="None" ValidationFormat="OntologyTerm Fixed modification"/>
-      <ColumnValidation ColumnAdress="10" ColumnHeader="Parameter [sample volume]" Importance="2" Unit="None" ValidationFormat="Number"/>
-      <ColumnValidation ColumnAdress="13" ColumnHeader="Parameter [injection volume]" Importance="2" Unit="None" ValidationFormat="Number"/>
-      <ColumnValidation ColumnAdress="16" ColumnHeader="Parameter [count unit]" Importance="3" Unit="None" ValidationFormat="Int"/>
-      <ColumnValidation ColumnAdress="19" ColumnHeader="Parameter [instrument model]" Importance="3" Unit="None" ValidationFormat="OntologyTerm instrument model"/>
-      <ColumnValidation ColumnAdress="22" ColumnHeader="Parameter [duration]" Importance="4" Unit="None" ValidationFormat="Number"/>
-      <ColumnValidation ColumnAdress="25" ColumnHeader="Data File Name" Importance="5" Unit="None" ValidationFormat="Text"/>
-    </TableValidation>
-  </SwateTable>
-  <SwateTable Table="annotationTable" Worksheet="Sample preparation">
-    <TableValidation DateTime="2021-03-02 14:07" SwateVersion="0.4.0" TableName="annotationTable" Userlist="" WorksheetName="Sample preparation">
+  <SwateTable Table="annotationTable" Worksheet="1SPL02_ProteomicsSamplePreparat">
+    <TableValidation DateTime="2021-03-11 19:45" SwateVersion="0.4.4" TableName="annotationTable" Userlist="" WorksheetName="1SPL02_ProteomicsSamplePreparat">
       <ColumnValidation ColumnAdress="0" ColumnHeader="Source Name" Importance="5" Unit="None" ValidationFormat="Text"/>
       <ColumnValidation ColumnAdress="1" ColumnHeader="Characteristics [species]" Importance="4" Unit="None" ValidationFormat="OntologyTerm species"/>
       <ColumnValidation ColumnAdress="4" ColumnHeader="Characteristics [genotype information]" Importance="4" Unit="None" ValidationFormat="OntologyTerm genotype information"/>
@@ -1397,27 +1374,18 @@
       <ColumnValidation ColumnAdress="16" ColumnHeader="Characteristics [cell]" Importance="3" Unit="None" ValidationFormat="OntologyTerm cell"/>
       <ColumnValidation ColumnAdress="19" ColumnHeader="Characteristics [disease]" Importance="1" Unit="None" ValidationFormat="OntologyTerm disease"/>
       <ColumnValidation ColumnAdress="22" ColumnHeader="Characteristics [biological replicate]" Importance="2" Unit="None" ValidationFormat="Int"/>
-      <ColumnValidation ColumnAdress="25" ColumnHeader="Parameter [Quantification method]" Importance="3" Unit="None" ValidationFormat="OntologyTerm Quantification method"/>
-      <ColumnValidation ColumnAdress="28" ColumnHeader="Parameter [spectrum interpretation]" Importance="3" Unit="None" ValidationFormat="OntologyTerm spectrum interpretation"/>
-      <ColumnValidation ColumnAdress="31" ColumnHeader="Parameter [matrix solution]" Importance="2" Unit="None" ValidationFormat="OntologyTerm matrix solution"/>
-      <ColumnValidation ColumnAdress="34" ColumnHeader="Parameter [cleavage agent name]" Importance="3" Unit="None" ValidationFormat="OntologyTerm cleavage agent name"/>
-      <ColumnValidation ColumnAdress="37" ColumnHeader="Parameter [molecule]" Importance="3" Unit="None" ValidationFormat="OntologyTerm molecule"/>
-      <ColumnValidation ColumnAdress="40" ColumnHeader="Parameter [sample state]" Importance="2" Unit="None" ValidationFormat="OntologyTerm sample state"/>
-      <ColumnValidation ColumnAdress="43" ColumnHeader="Parameter [staining]" Importance="3" Unit="None" ValidationFormat="OntologyTerm staining"/>
-      <ColumnValidation ColumnAdress="46" ColumnHeader="Parameter [buffer]" Importance="2" Unit="None" ValidationFormat="OntologyTerm buffer"/>
-      <ColumnValidation ColumnAdress="49" ColumnHeader="Parameter [ph]" Importance="2" Unit="None" ValidationFormat="Number"/>
-      <ColumnValidation ColumnAdress="52" ColumnHeader="Parameter [sample pre-fractionation]" Importance="3" Unit="None" ValidationFormat="OntologyTerm sample pre-fractionation"/>
-      <ColumnValidation ColumnAdress="55" ColumnHeader="Parameter [protein column]" Importance="3" Unit="None" ValidationFormat="OntologyTerm protein column"/>
-      <ColumnValidation ColumnAdress="58" ColumnHeader="Parameter [temperature]" Importance="3" Unit="degree Celsius" ValidationFormat="UnitTerm degree Celsius"/>
-      <ColumnValidation ColumnAdress="64" ColumnHeader="Parameter [time]" Importance="3" Unit="None" ValidationFormat="Number"/>
-      <ColumnValidation ColumnAdress="67" ColumnHeader="Sample Name" Importance="5" Unit="None" ValidationFormat="Text"/>
+      <ColumnValidation ColumnAdress="25" ColumnHeader="Parameter [spectrum interpretation]" Importance="3" Unit="None" ValidationFormat="OntologyTerm spectrum interpretation"/>
+      <ColumnValidation ColumnAdress="28" ColumnHeader="Parameter [matrix solution]" Importance="2" Unit="None" ValidationFormat="OntologyTerm matrix solution"/>
+      <ColumnValidation ColumnAdress="31" ColumnHeader="Parameter [temperature]" Importance="3" Unit="degree Celsius" ValidationFormat="UnitTerm degree Celsius"/>
+      <ColumnValidation ColumnAdress="37" ColumnHeader="Parameter [time]" Importance="3" Unit="None" ValidationFormat="Number"/>
+      <ColumnValidation ColumnAdress="40" ColumnHeader="Sample Name" Importance="5" Unit="None" ValidationFormat="Text"/>
     </TableValidation>
   </SwateTable>
 </customXml>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC659FA7-EECD-4F3A-A590-22A36420F9C2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{445A1374-A1E1-46F9-88A0-1AE16392DDA2}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>